--- a/Budget_request_Testcase.xlsx
+++ b/Budget_request_Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebdriverIO\ProjectTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13892104-C8C5-469E-8170-5A9F189DEBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE4CEE2-89D5-49D1-BCA1-F7CECA7875FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{432D4B3D-68B6-4C3C-8E61-5866CAD55930}"/>
   </bookViews>
@@ -37,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
-  <si>
-    <t>ID_Test_Suite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_Test_Case </t>
-  </si>
-  <si>
-    <t>Pre_condition</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Test steps</t>
   </si>
@@ -70,55 +61,6 @@
   </si>
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>1. Enter content request
-2. Enter number finance
-3. Click send Head of department  
-4. Login Head of department account and approve for request
-5. Login accountant account approve, approve for request</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Request content is not empty
-2. Request number finance is not empty
-3. Request display in page request
-4. Approve success and change Head of department approved status
-5. Approve success and change </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accountant account</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> approved status
-</t>
-    </r>
-  </si>
-  <si>
-    <t>TC002_Send_Request_ Head of department_Approved</t>
-  </si>
-  <si>
-    <t>TC003_Send_Request_ Head of department_Reject</t>
-  </si>
-  <si>
-    <t>TC004_Send_Request_ Accountant_account_Approved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC005_Send_Request_ Accountant_accountRejected </t>
   </si>
   <si>
     <r>
@@ -236,30 +178,125 @@
 3. Login Financial Admin account and approve for request </t>
   </si>
   <si>
-    <t>TC003_Resend_Request_under_50mil</t>
-  </si>
-  <si>
-    <t>TC004_Resend_Request_above_50mil</t>
-  </si>
-  <si>
-    <t>TC002_Resend_Request_Reject_Lack_File_above_50mil</t>
-  </si>
-  <si>
-    <t>TC001_Resend_Request_Lack_File_under_50mil</t>
-  </si>
-  <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login system
+2. Enter subject request
+3. Enter number finance &gt;  50mil VND
+4. Enter documment
+5. Click send Head of department 
+</t>
+  </si>
+  <si>
+    <t>[subject request] =  "văn phòng phẩm"
+[number finance] = "50000"</t>
+  </si>
+  <si>
+    <t>TS002_Resend_Request_Lack_File_under_50mil</t>
+  </si>
+  <si>
+    <t>TS004_Resend_Request_under_50mil</t>
+  </si>
+  <si>
+    <t>TS005_Resend_Request_above_50mil</t>
+  </si>
+  <si>
+    <t>TS003_Resend_Request_Reject_Lack_File_above_50mil</t>
+  </si>
+  <si>
+    <t>[subject request] =  "văn phòng phẩm"
+[number finance] = "100000000"</t>
+  </si>
+  <si>
+    <t>[subject request] =  "văn phòng phẩm"
+[number finance] = "0"</t>
+  </si>
+  <si>
+    <t>1. Enter subject request
+2. Enter number finance</t>
+  </si>
+  <si>
+    <t>[subject request] =  "văn phòng phẩm"
+[number finance] = "abxx"</t>
   </si>
   <si>
     <t xml:space="preserve">1. Enter subject request
 2. Enter number finance
+3. Enter document
+4. Click send Head of department </t>
+  </si>
+  <si>
+    <t>1. Enter subject request
+2. Enter number finance
+3. Enter document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[subject request] =  "văn phòng phẩm"
+[number finance] = "50000"
+[document] = "bill.exe"
+</t>
+  </si>
+  <si>
+    <t>[subject request] =  "văn phòng phẩm"
+[number finance] = "50000"
+[document] = "bill.pdf"</t>
+  </si>
+  <si>
+    <t>TC002_Verify_Number_Finance</t>
+  </si>
+  <si>
+    <t>TC003_Verify_Number_Finance</t>
+  </si>
+  <si>
+    <t>TC004_Verify_Number_Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter number finance
+2. Enter document
 3. Click send Head of department </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Request subject is not empty
-2. Request number finance is not empty
-3.1  </t>
+    <t xml:space="preserve">1. Request number finance valid
+2. Document  valid
+3. Request subject is not empty
+</t>
+  </si>
+  <si>
+    <t>TC005_Verify_Number_Finance</t>
+  </si>
+  <si>
+    <t>TC006_Send_Request_ Head of department_Approved</t>
+  </si>
+  <si>
+    <t>1. Enter content request
+2. Enter number finance
+3. Enter document
+4. Click send Head of department  
+5. Login Head of department account and approve for request
+6. Login accountant account approve, approve for request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter subject request
+2. Enter number finance
+3. Enter document
+4. Click send Head of department  
+5. Login Head of department account and reject for request and write reason reject  and reject for request
+6. Login system account need to be approved </t>
+  </si>
+  <si>
+    <t>1. Enter subject request
+2. Enter number finance
+3. Enter document
+4. Click send Head of department  
+5. Login Head of department account and approve for request</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Request subject valid
+2. Request number finance valid
+3. Document  valid
+4.1  </t>
     </r>
     <r>
       <rPr>
@@ -279,89 +316,84 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and Request display in page request and wait approve status
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3.2  Login Head of department approved status and Verify notification send create request success </t>
-    </r>
+      <t xml:space="preserve"> and Request display in page request and wait approve status</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login system account need to be approved
+2. Enter subject request
+3. Enter number finance &lt;  50mil VND
+4. Enter document
+5. Click send Head of department  
+6.  Login Head of department account approve for request 
+7. Login Accountant account approve, write reason reject  and reject for request 
+8. Login system account  PIC </t>
+  </si>
+  <si>
+    <t>[subject request] =  "văn phòng phẩm"
+[number finance] = "100000000"
+[document] = "bill_final.pdf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login system account need to be approved
+2. Enter subject request
+3. Enter number finance &gt;  50mil VND
+4. Enter document
+5. Click send Head of department  
+6.  Login Head of department account approve for request 
+7. Login Accountant account approve, write reason reject  and reject for request 
+8. Login system account  PIC </t>
+  </si>
+  <si>
+    <t>TC001_Resend_Request_Reject_Lack_File_above_50mil</t>
+  </si>
+  <si>
+    <t>TC001_Resend_Request_under_50mil</t>
+  </si>
+  <si>
+    <t>TC001_Resend_Request_above_50mil</t>
+  </si>
+  <si>
+    <t>1. Add documnent final for request</t>
+  </si>
+  <si>
+    <t>1. Verify documment invalid</t>
+  </si>
+  <si>
+    <t>TC002_Resend_Request_Lack_File_under_50mil</t>
+  </si>
+  <si>
+    <t>TC001_Resend_Request_Lack_File_Verify_File_under_50mil</t>
   </si>
   <si>
     <t>1. Enter subject request
 2. Enter number finance
-3. Click send Head of department  
-4. Login Head of department account and approve for request</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Request subject is not empty
+3. Enter 3 document
+4. Click send Head of department  
+5. Login Head of department account and approve for request</t>
+  </si>
+  <si>
+    <t>[subject request] =  "văn phòng phẩm"
+[number finance] = "50000"
+[document] = ["bill.pdf","bill1.pdf","bill3.pdf"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Request subject  valid
+2. Request number finance valid
+3. Message document  invalid </t>
+  </si>
+  <si>
+    <t>1. Request subject valid
+2. Finance invalid value</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Request subject  valid
 2. Request number finance is not empty
-3. Request display in page request
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.1 Approve success and change Head of department approved status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.2   Login accountant account  and Verify notification send request success</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter subject request
-2. Enter number finance
-3. Click send Head of department  
-4. Login Head of department account and reject for request and write reason reject  and reject for request
-5. Login system account need to be approved </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Request subject is not empty
-2. Request number finance is not empty
-3. Request display in page request
-4. Change Head of department reject status and verify reason reject.
-5. </t>
+3. Document  valid 
+4. Request display in page request
+5. Change Head of department reject status and verify reason reject.
+6. </t>
     </r>
     <r>
       <rPr>
@@ -385,12 +417,33 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Enter subject request
+    <t>[documnent final] = "bill_final.exe"</t>
+  </si>
+  <si>
+    <t>[subject request] =  "văn phòng phẩm"
+[number finance] = "50000"
+[document] = "bill_final.png"</t>
+  </si>
+  <si>
+    <t>TC007_Send_Request_ Head of department_Approved</t>
+  </si>
+  <si>
+    <t>TC008_Send_Request_ Head of department_Reject</t>
+  </si>
+  <si>
+    <t>TC009_Send_Request_ Accountant_account_Approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC0010_Send_Request_ Accountant_accountRejected </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter content request
 2. Enter number finance
-3. Click send Head of department  
-4. Login Head of department account and approve for request
-5. Login </t>
+3. Enter document
+4. Click send Head of department  
+5. Login Head of department account and approve for request
+6. Login </t>
     </r>
     <r>
       <rPr>
@@ -405,11 +458,11 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. Request subject is not empty
-2. Request number finance is not empty
-3. Request display in page request and approve status
-4. Approve success and change Head of department approved status
-5. Verify </t>
+      <t xml:space="preserve">1. Request subject  valid
+2. Request number finance valid
+3. Document  valid 
+4. Request display in page request
+</t>
     </r>
     <r>
       <rPr>
@@ -419,54 +472,77 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Accountant account reason reject and status </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login system account need to be approved
-2. Enter subject request
-3. Enter number finance &lt;  50mil VND
-4. Click send Head of department  
-5.  Login Head of department account approve for request 
-5. Login Accountant account approve, write reason reject  and reject for request 
-6. Login system account  PIC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login system account need to be approved
-2. Enter subject request
-3. Enter number finance &gt;  50mil VND
-4. Click send Head of department  
-5.  Login Head of department account approve for request 
-5. Login Accountant account approve, write reason reject  and reject for request 
-6. Login system account  PIC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login system
-2. Enter subject request
-3. Enter number finance &gt;  50mil VND
-4. Enter documment
-5. Click send Head of department 
+      <t xml:space="preserve">5.1 Approve success and change Head of department approved status
+5.2   Login accountant account  and Verify notification send request success </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Request subject  valid
+2. Request number finance valid
+3. Document  valid 
+4. Request display in page request
+5.1 Approve success and change Head of department approved status
+5.2   Login accountant account  and Verify notification send request success </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Request subject  valid
+2. Request number finance valid
+3. Document  valid 
+4. Request display in page request
+5. Approve success and change Head of department approved status
+6. Approve success and change </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accountant account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> approved status
 </t>
-  </si>
-  <si>
-    <t>[subject request] =  "văn phòng phẩm"
-[number finance] = "50000"</t>
-  </si>
-  <si>
-    <t>TS002_Resend_Request_Lack_File_under_50mil</t>
-  </si>
-  <si>
-    <t>TS004_Resend_Request_under_50mil</t>
-  </si>
-  <si>
-    <t>TS005_Resend_Request_above_50mil</t>
-  </si>
-  <si>
-    <t>TS003_Resend_Request_Reject_Lack_File_above_50mil</t>
-  </si>
-  <si>
-    <t>[subject request] =  "văn phòng phẩm"
-[number finance] = "100000000"</t>
+    </r>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Test Case </t>
+  </si>
+  <si>
+    <t>ID Test Suite</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Request subject  valid
+2. Request number finance valid
+3. Document  valid 
+4. Request display in page request and approve status
+5. Approve success and change Head of department approved status
+6. Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reason reject and status </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -503,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -526,11 +602,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -550,6 +661,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AE7274-7AB8-410B-9563-8384048EE252}">
-  <dimension ref="A4:J13"/>
+  <dimension ref="A4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,256 +1008,400 @@
   <sheetData>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
+      <c r="B12" s="7"/>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I4" xr:uid="{13AE7274-7AB8-410B-9563-8384048EE252}"/>
-  <mergeCells count="1">
-    <mergeCell ref="B5:B9"/>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Budget_request_Testcase.xlsx
+++ b/Budget_request_Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebdriverIO\ProjectTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE4CEE2-89D5-49D1-BCA1-F7CECA7875FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1882AD-14FC-4EA6-9AAE-1F811BA2BC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{432D4B3D-68B6-4C3C-8E61-5866CAD55930}"/>
   </bookViews>
@@ -63,76 +63,11 @@
     <t>STT</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Verify documment is add
-2.1 Request display in page request and reject status
-2.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Button Send accountant display</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in page detail 
-3.1 Approve success and approved status
-3.2 Login For Board of directors account and verify request not display 
-3.3 Login For Financial Admin account and verify request display
-4.1 Status change success 
-4.2  Login Head of department account and verify notification display 
-4.3  Login Accountant account account and verify notification display</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1. Add documnent for request
 2. Click send accountant
 3. Login Accountant account and approve for request
 4. Login Board of directors account and approve for request
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Verify documment is add
-2.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Button Send accountant display</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and Request display in page request and approve status
-3.1 Approve success and approved status
-3.2  Login For Financial Admin account and verify request not display 
-3.3 Login For Board of directors account and verify request display 
-4.1 Status change success 
-4.2  Login Head of department account and verify notification display 
-4.3  Login Accountant account account and verify notification display</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">1. Add documnent for request
@@ -153,24 +88,6 @@
     <t xml:space="preserve">1. Login Head of department account and approve for request 
 2. Login Accountant account and approve for request 
 3. Login For Board of directors account and approve for request </t>
-  </si>
-  <si>
-    <t>1. Verify request approve by Head of department
-2.1 Verify request approve by Accountant account
-2.2 Status change success 
-2.3 Login For Board of directors account and verify request not display 
-2.4 Login For Financial Admin account and verify request display
-3.1  Login Head of department account and verify notification display 
-3.2  Login Accountant account account and verify notification display</t>
-  </si>
-  <si>
-    <t>1. Verify request approve by Head of department
-2.1 Verify request approve by Accountant account
-2.2 Status change success 
-2.3 Login Financial Admin account and verify request not display 
-3.3 Login Board of directors account and verify request display
-3.1  Login Head of department account and verify notification display 
-3.2  Login Accountant account account and verify notification display</t>
   </si>
   <si>
     <t xml:space="preserve">1. Login Head of department account and approve for request 
@@ -387,36 +304,6 @@
 2. Finance invalid value</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Request subject  valid
-2. Request number finance is not empty
-3. Document  valid 
-4. Request display in page request
-5. Change Head of department reject status and verify reason reject.
-6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Button Send accountant not display </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and Button send Head of department display</t>
-    </r>
-  </si>
-  <si>
     <t>[documnent final] = "bill_final.exe"</t>
   </si>
   <si>
@@ -485,6 +372,191 @@
 5.2   Login accountant account  and Verify notification send request success </t>
   </si>
   <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Test Case </t>
+  </si>
+  <si>
+    <t>ID Test Suite</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Request subject  valid
+2. Request number finance valid
+3. Document  valid 
+4. Request display in page request and approve status
+5. Approve success and change Head of department approved status
+6. Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reason reject and status </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Request subject  valid
+2. Request number finance valid
+3. Document  valid 
+4. Request display in page request
+5. Change Head of department reject status and verify reason reject.
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Button Send accountant not display </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and Button send Head of department display</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Verify documment is add
+2.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Button Send accountant display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Request display in page request and wait for approve status
+3.1 Approve success and approved status
+3.2 Login For Board of directors account and verify request not display 
+3.3 Login For Financial Admin account and verify request display
+4.1 Status change success 
+4.2  Login Head of department account and verify notification display 
+4.3  Login Accountant account account and verify notification display</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Verify documment is add
+2.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Button Send accountant display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Request display in page request and wait for approve status
+3.1 Approve success and approved status
+3.2  Login For Financial Admin account and verify request not display 
+3.3 Login For Board of directors account and verify request display 
+4.1 Status change success 
+4.2  Login Head of department account and verify notification display 
+4.3  Login Accountant account account and verify notification display</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Verify request approve by Head of department
+2.1 Verify request approve by Accountant account
+2.2 Status change success 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.3 Login For Board of directors account and verify request not display 
+2.4 Login For Financial Admin account and verify request display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.1  Login Head of department account and verify notification display 
+3.2  Login Accountant account account and verify notification display</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Verify request approve by Head of department
+2.1 Verify request approve by Accountant account
+2.2 Status change success 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.3 Login Financial Admin account and verify request not display 
+2.4 Login Board of directors account and verify request display
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1  Login Head of department account and verify notification display 
+3.2  Login Accountant account account and verify notification display</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. Request subject  valid
 2. Request number finance valid
@@ -501,7 +573,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Accountant account</t>
+      <t>accountant account</t>
     </r>
     <r>
       <rPr>
@@ -513,35 +585,6 @@
       </rPr>
       <t xml:space="preserve"> approved status
 </t>
-    </r>
-  </si>
-  <si>
-    <t>Precondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID Test Case </t>
-  </si>
-  <si>
-    <t>ID Test Suite</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Request subject  valid
-2. Request number finance valid
-3. Document  valid 
-4. Request display in page request and approve status
-5. Approve success and change Head of department approved status
-6. Verify</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> reason reject and status </t>
     </r>
   </si>
 </sst>
@@ -659,10 +702,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -684,10 +727,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,7 +1029,7 @@
   <dimension ref="A4:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,19 +1050,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>1</v>
@@ -1039,7 +1078,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1049,13 +1088,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1064,21 +1103,21 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1087,21 +1126,21 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1110,21 +1149,21 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1133,21 +1172,21 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1156,21 +1195,21 @@
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1179,21 +1218,21 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1202,21 +1241,21 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1225,21 +1264,21 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1248,21 +1287,21 @@
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1273,72 +1312,72 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1348,22 +1387,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1373,29 +1412,29 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I4" xr:uid="{13AE7274-7AB8-410B-9563-8384048EE252}"/>
